--- a/excel/booklist2020.xlsx
+++ b/excel/booklist2020.xlsx
@@ -861,52 +861,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>מה זה אומר כשגבר נופל מהשמיים / לזלי ננקה ארימה ; מאנגלית: קטיה בנוביץ'.</t>
+          <t>אבא, מה זה הומו? אבא, מה זה לסבית? : ספר ילדים גאה / דורון בראונשטיין.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>בנוביץ', קטיה, 1972-  (מתרגם)  $$Qבנוביץ', קטיה, 1972-</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21231424310005171</t>
+          <t>NNL_ALEPH21203465110005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231424310005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21203465110005171</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ארימה, לזלי ננקה מחבר$$Qארימה, לזלי ננקה</t>
+          <t>בראונשטיין, דורון, 1976- מחבר$$Qבראונשטיין, דורון, 1976-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nigerian fiction (English) -- Translations into Hebrew; Short stories; Parent and child -- Fiction; Married people -- Fiction; Man-woman relationships -- Fiction; Interpersonal relations -- Fiction</t>
+          <t>Children's literature, Hebrew -- 21st century; Gay couples -- Juvenile literature; Lesbians -- Juvenile literature</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305245530005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305311800005171</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>165 עמודים ; 21 ס"מ.</t>
+          <t>22 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>[2018 בערך]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>מושב בן-שמן : מודן הוצאה לאור ; תל-אביב : חרגול הוצאה לאור</t>
+          <t>[פתח תקוה] : לב ספרים הוצאה לאור</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990044078960205171</t>
+          <t>990044319810205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21231424310005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21203465110005171</t>
         </is>
       </c>
     </row>
@@ -1804,52 +1804,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>הסוד של צופית / מרים רות ; איורים: רות צרפתי.</t>
+          <t>הסוד של צופית / מרים רות ; ציורים - רות צרפתי.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>צרפתי-שטרנשוס, רות, 1928-2010  (מאייר)  $$Qצרפתי-שטרנשוס, רות, 1928-2010</t>
+          <t>צרפתי-שטרנשוס, רות, 1928-2010  $$Qצרפתי-שטרנשוס, רות, 1928-2010</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21410289400005171</t>
+          <t>NNL_ALEPH21185540560005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21410289400005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21185540560005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>רות, מרים, 1910-2005 מחבר$$Qרות, מרים, 1910-2005</t>
+          <t>רות, מרים, 1910-2005$$Qרות, מרים, 1910-2005</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trees -- Juvenile fiction; Nature stories; Stories in rhyme; Children's stories, Hebrew -- 21st century</t>
+          <t>Nature stories; Trees -- Juvenile fiction; Children's stories, Hebrew -- 21st century; Stories in rhyme</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12411537160005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32 עמודים, 4 עמודים לא ממוספרים : איורם צבעוניים ; 23X21 ס"מ.</t>
+          <t>30, [2] עמודים : איורים צבעוניים ; 22 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>תשפ"א 2020</t>
+          <t>תשנ"ז 1996</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>בני ברק : ספרית פועלים</t>
+          <t>תל אביב : ספרית פועלים</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>997009909376505171</t>
+          <t>990017605650205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21410289400005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	אל תגנבו לי את התור / בשאראת עודה</t>
+          <t xml:space="preserve">	 אל תגנבו לי את התור / בשאראת עודה</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>חבר שאין כמוהו בעמק הזאבים / אוליבר שרץ ; איורים: ברברה שולץ ; עברית: ד"ר חנה לבנת ; עריכה: אלירז נר-גאון.</t>
+          <t>חבר שאין כמוהו / אוליבר שרץ ; איורים: ברברה שולץ ; עברית: חנה לבנת ; עריכה: ניצה פלד.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>שולץ, ברברה, 1969-  (מאייר)  $$Qשולץ, ברברה, 1969-</t>
+          <t>לבנת, חנה, 1951-  (מתרגם)  $$Qלבנת, חנה, 1951-</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21499209080005171</t>
+          <t>NNL_ALEPH21190614000005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21499209080005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21190614000005171</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3511,22 +3511,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pocket gophers -- Juvenile fiction; Wolves -- Juvenile fiction; Friendship -- Juvenile fiction; Adventure stories; Children's stories, German -- Translations into Hebrew</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12503509750005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303187800005171</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>121 עמודים, 5 עמודים לא ממוספרים : איורים צבעוניים, מפות צבעוניות ; 25 ס"מ.</t>
+          <t>122 עמודים, 5 עמודים לא ממוספרים : איורים צבעוניים ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>997012197851305171</t>
+          <t>990049097440205171</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21499209080005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21190614000005171</t>
         </is>
       </c>
     </row>
@@ -3649,52 +3649,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>מנהיגה ללא גבולות : הנרייטה סאלד - ביוגרפיה / דבורה הכהן.</t>
+          <t>הנרייטה סאלד / כתבה: דורית גני ; אירה: אורן אקריש-ביטון ; עריכה וניקוד: ניצה פלד.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>אקריש-ביטון, אורן  (מאייר)  $$Qאקריש-ביטון, אורן</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21191705480005171</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21191705480005171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>גני, דורית מחבר$$Qגני, דורית</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>סאלד הנרייטה; Jewish Agency for Israel. Child and Youth Immigration Bureau; Zionists -- Biography -- Juvenile literature; Women social reformers -- Biography -- Juvenile literature; Jewish women -- Biography -- Juvenile literature</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NNL_ALEPH21294626290005171</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21294626290005171</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>הכהן, דבורה מחבר$$Qהכהן, דבורה</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>סולד, הנריטה, 1860-1945; Jewish Agency for Israel. Child and Youth Immigration Bureau; Jewish women -- Biography; Zionists -- Biography; Zionists -- United States -- Biography</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303285260005171</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>480 עמודים, 16 עמודים לא ממוספרים : איורים, פורטרים ; 23 ס"מ.</t>
+          <t>33 עמודים לא ממוספרים : איורים צבעוניים, פורטרט ; 25 ס"מ.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>תשע"ט 2019</t>
+          <t>[2019]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>תל אביב : הוצאת עם עובד</t>
+          <t>יפו : צלטנר בית מלאכה לספרי ילדים</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>990050545830205171</t>
+          <t>990053892270205171</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21294626290005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>נמלטים מצפורני העיט / מורג אורה</t>
+          <t>במנוסה מציפורני העיט / אורה מורג ; איורים: איל אילת.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>אילת, איל  (מאייר)  $$Qאילת, איל</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21172832650005171</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21172832650005171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>מורג, אורה, 1943- מחבר$$Qמורג, אורה, 1943-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Palmah -- Juvenile fiction; Jewish children in the Holocaust -- Juvenile fiction; Farhud, Baghdad, Iraq, 1941 -- Juvenile fiction; Children -- Eretz Israel -- Juvenile fiction; Young adult fiction; Eretz Israel -- History -- 1917-1948, British Mandate period -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303123340005171</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>278 עמודים, 1 עמוד לא ממוספר : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>תשע"ט 2019</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ירושלים ; תל אביב : הוצאת שוקן</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>990050767600205171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21172832650005171</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5180,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100ימים עם אפריל-מאי / בולברינג אידית</t>
+          <t>100 ימים עם אפריל-מאי / אידית בולברינג ; מאנגלית: נועה מרום ; עריכת תרגום: חגי ברקת.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>מרום, נועה  (מתרגם)  $$Qמרום, נועה</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21268741840005171</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21268741840005171</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>בולברינג, אידית מחבר$$Qבולברינג, אידית</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- 21st century; Children's stories -- Translations into Hebrew; College students -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304879890005171</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>215 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>תשע"ה 2014</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>קרית גת : דני ספרים הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>990038049980205171</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21268741840005171</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5468,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>דיאנה	עיר הזמן / וין-ג'ונס</t>
+          <t>עיר הזמן / דיאנה ווין ג'ונס ; תרגום: ענבל שגיב-נקדימון ; עריכה: רוני בק ; עורכת ראשית: גילי בר-הלל סמו.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>שגיב-נקדימון, ענבל  (מתרגם)  $$Qשגיב-נקדימון, ענבל</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21283420130005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21283420130005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ג'ונס, דיאנה ווין, 1934-2011 מחבר$$Qג'ונס, דיאנה ווין, 1934-2011</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew; Time travel -- Juvenile fiction; World War, 1939-1945 -- Juvenile fiction; Fantasy fiction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305314240005171</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>339 עמודים, 5 עמודים לא ממוספרים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20180101</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[רמת-גן] : עוץ</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990047258560205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21283420130005171</t>
         </is>
       </c>
     </row>
@@ -5633,14 +5828,144 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>נשים קטנות – קומיקס / מ.אלקוט לואיזה</t>
+          <t>מג ג'ו בת ואיימי: רומן גרפי : הגרסה המודרנית של נשים קטנות / ריי טרסרו וברה אינדיגו ; מאנגלית: דנה טל ; עורכת התרגום: עמית ישראלי גלעד.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>אינדיגו, ברה  (מחבר)  $$Qאינדיגו, ברה</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21285246050005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21285246050005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>טרסרו, ריי מחבר$$Qטרסרו, ריי</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew; Sisters -- Juvenile fiction; Diseases -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303375260005171</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 כרך (ללא מספור עמודים) : איורים צבעוניים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2019]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>מושב בן שמן : כתר</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990052524060205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21285246050005171</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>סקרלט	 / מאייר מאריסה</t>
+          <t>סקרלט / מאריסה מאייר ; מאנגלית: יעל אכמון.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>אכמון, יעל  (מתרגם)  $$Qאכמון, יעל</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21168992150005171</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21168992150005171</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>מאייר, מאריסה מחבר$$Qמאייר, מאריסה</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fantasy -- Juvenile fiction; Extraterrestrial beings -- Juvenile fiction; Cyborgs -- Juvenile fiction; Missing persons -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303974380005171</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>397 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>תשע"ז 2017</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : כנרת בית הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>990040579880205171</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21168992150005171</t>
         </is>
       </c>
     </row>
@@ -5791,22 +6116,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>אדון הטלקינזיס : עץ עתיק יומין / עידן קנוחן ; עריכה: עופרה גלברט-אבני ; איורים: ישראל ברסלב.</t>
+          <t>אוצרות הסיקריקים / עידן קנוחן ; עריכה: עופרה גלברט-אבני ; איורים: ישראל ברסלב.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-</t>
+          <t>ברסלב, ישראל  $$Qברסלב, ישראל</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21231427040005171</t>
+          <t>NNL_ALEPH21270653740005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231427040005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270653740005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -5816,22 +6141,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Science fiction, Hebrew; Psychokinesis -- Juvenile fiction; Telepathy -- Juvenile fiction; Schools -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Adventure and adventurers -- Fiction -- Juvenile fiction; Fantasy fiction, Israeli; Hypnotists -- Juvenile fiction; Magic -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305233000005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303326050005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>368 עמודים : איורים ; 21 ס"מ.</t>
+          <t>336 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>תשע"ח 2018</t>
+          <t>תשע"ט 2018</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5846,7 +6171,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990044078750205171</t>
+          <t>990048763960205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -5856,7 +6181,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21231427040005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21270653740005171</t>
         </is>
       </c>
     </row>
@@ -6674,7 +6999,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>דיאנה	עיר הזמן / וין-ג'ונס</t>
+          <t>עיר הזמן / דיאנה ווין ג'ונס ; תרגום: ענבל שגיב-נקדימון ; עריכה: רוני בק ; עורכת ראשית: גילי בר-הלל סמו.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>שגיב-נקדימון, ענבל  (מתרגם)  $$Qשגיב-נקדימון, ענבל</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21283420130005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21283420130005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ג'ונס, דיאנה ווין, 1934-2011 מחבר$$Qג'ונס, דיאנה ווין, 1934-2011</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew; Time travel -- Juvenile fiction; World War, 1939-1945 -- Juvenile fiction; Fantasy fiction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305314240005171</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>339 עמודים, 5 עמודים לא ממוספרים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20180101</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[רמת-גן] : עוץ</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>990047258560205171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21283420130005171</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7503,72 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>שרלוק הולמס...עמק הפחד / קונן דויל ארתור</t>
+          <t>שרלוק הולמס : כל הסיפורים / ארתור קונן דויל ; מאנגלית - רות שמעוני וחנה לבנת ; [חידוש התרגום - מאיה פלדמן].</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>שמעוני, רות  $$Qשמעוני, רות</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21220411830005171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21220411830005171</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>דויל, ארתור קונן, 1859-1930$$Qדויל, ארתור קונן, 1859-1930</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Holmes, Sherlock -- Fiction; Fiction -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 כרכים (כרך א-ה) ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>תש"ע 2009 -תשע"ד 2013</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>אור יהודה : מחברות לספרות</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>990026976630205171</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -7192,22 +7647,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>אדון הטלקינזיס : עץ עתיק יומין / עידן קנוחן ; עריכה: עופרה גלברט-אבני ; איורים: ישראל ברסלב.</t>
+          <t>אוצרות הסיקריקים / עידן קנוחן ; עריכה: עופרה גלברט-אבני ; איורים: ישראל ברסלב.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-</t>
+          <t>ברסלב, ישראל  $$Qברסלב, ישראל</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21231427040005171</t>
+          <t>NNL_ALEPH21270653740005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21231427040005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21270653740005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7217,22 +7672,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Science fiction, Hebrew; Psychokinesis -- Juvenile fiction; Telepathy -- Juvenile fiction; Schools -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Adventure and adventurers -- Fiction -- Juvenile fiction; Fantasy fiction, Israeli; Hypnotists -- Juvenile fiction; Magic -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305233000005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303326050005171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>368 עמודים : איורים ; 21 ס"מ.</t>
+          <t>336 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>תשע"ח 2018</t>
+          <t>תשע"ט 2018</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -7247,7 +7702,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990044078750205171</t>
+          <t>990048763960205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -7257,7 +7712,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21231427040005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21270653740005171</t>
         </is>
       </c>
     </row>
@@ -8795,7 +9250,72 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>החיים ה(לא כל כך) מושלמים שלי / קינסלה סופי</t>
+          <t>החיים הלא כל כך מושלמים שלי / סופי קינסלה ; מאנגלית: דנה טל ; עריכת תרגום: מורן שין עשת.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>טל, דנה, 1980-  (מתרגם)  $$Qטל, דנה, 1980-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21193382210005171</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21193382210005171</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>קינסלה, סופי, 1969- מחבר$$Qקינסלה, סופי, 1969-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>English fiction -- Translations into Hebrew; Single women -- Fiction; Family-owned business enterprises -- Fiction; London (England) -- Fiction; Somerset (England) -- Fiction</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303586260005171</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>391 עמודים, 1 עמוד לא ממוספר ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20180101</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>הוד השרון : הוצאת הכורסא</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>990043967950205171</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21193382210005171</t>
         </is>
       </c>
     </row>
@@ -9613,7 +10133,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>בעל זבוב / גולדן ויליאם</t>
+          <t>בעל זבוב / ויליאם גולדינג ; [תרגם מאנגלית אמיר צוקרמן].</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>צוקרמן, אמיר  $$Qצוקרמן, אמיר</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21253728210005171</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21253728210005171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>גולדינג, ויליאם, 1911-1993$$Qגולדינג, ויליאם, 1911-1993</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiction -- Translations into Hebrew; Teenagers -- Fiction; Aircraft accidents -- Fiction; Survival skills -- Fiction; Regression (Psychology) -- Fiction; Islands -- Fiction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>266 עמודים ; 19 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>תשע"א</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>חולון : עם עובד</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>990032547470205171</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
